--- a/Число точек AMR.xlsx
+++ b/Число точек AMR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13440"/>
+    <workbookView windowWidth="25600" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1015,11 +1015,11 @@
   <sheetPr/>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="14" width="9" style="1"/>
   </cols>
@@ -1095,8 +1095,12 @@
       <c r="E8" s="3">
         <v>1033</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="3">
+        <v>1035</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1049</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1121,8 +1125,12 @@
       <c r="E9" s="3">
         <v>470</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="F9" s="3">
+        <v>537</v>
+      </c>
+      <c r="G9" s="3">
+        <v>542</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1187,10 +1195,18 @@
       <c r="C16" s="3">
         <v>573</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="D16" s="3">
+        <v>614</v>
+      </c>
+      <c r="E16" s="3">
+        <v>615</v>
+      </c>
+      <c r="F16" s="3">
+        <v>609</v>
+      </c>
+      <c r="G16" s="3">
+        <v>608</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1209,10 +1225,18 @@
       <c r="C17" s="3">
         <v>452</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="D17" s="3">
+        <v>451</v>
+      </c>
+      <c r="E17" s="3">
+        <v>431</v>
+      </c>
+      <c r="F17" s="3">
+        <v>442</v>
+      </c>
+      <c r="G17" s="3">
+        <v>453</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1230,10 +1254,18 @@
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="3">
+        <v>305</v>
+      </c>
+      <c r="C20" s="3">
+        <v>456</v>
+      </c>
+      <c r="D20" s="3">
+        <v>566</v>
+      </c>
+      <c r="E20" s="3">
+        <v>607</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1251,9 +1283,15 @@
       <c r="B21" s="3">
         <v>387</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="C21" s="3">
+        <v>389</v>
+      </c>
+      <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>406</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1318,8 +1356,12 @@
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="3">
+        <v>118</v>
+      </c>
+      <c r="C28" s="3">
+        <v>132</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1336,8 +1378,12 @@
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="3">
+        <v>249</v>
+      </c>
+      <c r="C29" s="3">
+        <v>421</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
